--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N2">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O2">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P2">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q2">
-        <v>4307.833387836688</v>
+        <v>10567.64341299039</v>
       </c>
       <c r="R2">
-        <v>4307.833387836688</v>
+        <v>95108.79071691353</v>
       </c>
       <c r="S2">
-        <v>0.001583730467459786</v>
+        <v>0.003344990460224686</v>
       </c>
       <c r="T2">
-        <v>0.001583730467459786</v>
+        <v>0.003344990460224686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N3">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O3">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P3">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q3">
-        <v>9.225507115985332</v>
+        <v>25.607274100432</v>
       </c>
       <c r="R3">
-        <v>9.225507115985332</v>
+        <v>230.465466903888</v>
       </c>
       <c r="S3">
-        <v>3.391662439547194E-06</v>
+        <v>8.105505099936475E-06</v>
       </c>
       <c r="T3">
-        <v>3.391662439547194E-06</v>
+        <v>8.105505099936477E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N4">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O4">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P4">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q4">
-        <v>563.2620141142625</v>
+        <v>1537.448337318637</v>
       </c>
       <c r="R4">
-        <v>563.2620141142625</v>
+        <v>13837.03503586773</v>
       </c>
       <c r="S4">
-        <v>0.0002070774639135927</v>
+        <v>0.000486650601315461</v>
       </c>
       <c r="T4">
-        <v>0.0002070774639135927</v>
+        <v>0.000486650601315461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N5">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O5">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P5">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q5">
-        <v>166.9897421972987</v>
+        <v>1080.941603141109</v>
       </c>
       <c r="R5">
-        <v>166.9897421972987</v>
+        <v>9728.474428269985</v>
       </c>
       <c r="S5">
-        <v>6.139205458081267E-05</v>
+        <v>0.0003421519074084486</v>
       </c>
       <c r="T5">
-        <v>6.139205458081267E-05</v>
+        <v>0.0003421519074084486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N6">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O6">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P6">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q6">
-        <v>2303272.534320758</v>
+        <v>2500429.083865207</v>
       </c>
       <c r="R6">
-        <v>2303272.534320758</v>
+        <v>22503861.75478686</v>
       </c>
       <c r="S6">
-        <v>0.8467743663825722</v>
+        <v>0.7914641992666064</v>
       </c>
       <c r="T6">
-        <v>0.8467743663825722</v>
+        <v>0.7914641992666064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N7">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O7">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P7">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q7">
-        <v>4932.608864452974</v>
+        <v>6058.983106916708</v>
       </c>
       <c r="R7">
-        <v>4932.608864452974</v>
+        <v>54530.84796225037</v>
       </c>
       <c r="S7">
-        <v>0.00181342272074719</v>
+        <v>0.001917858116444882</v>
       </c>
       <c r="T7">
-        <v>0.00181342272074719</v>
+        <v>0.001917858116444882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N8">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O8">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P8">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q8">
-        <v>301159.7269287786</v>
+        <v>363778.411830787</v>
       </c>
       <c r="R8">
-        <v>301159.7269287786</v>
+        <v>3274005.706477083</v>
       </c>
       <c r="S8">
-        <v>0.1107182641872076</v>
+        <v>0.1151472726373282</v>
       </c>
       <c r="T8">
-        <v>0.1107182641872076</v>
+        <v>0.1151472726373282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N9">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O9">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P9">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q9">
-        <v>89284.53170968451</v>
+        <v>255763.5337251675</v>
       </c>
       <c r="R9">
-        <v>89284.53170968451</v>
+        <v>2301871.803526507</v>
       </c>
       <c r="S9">
-        <v>0.03282453623688461</v>
+        <v>0.08095717720115106</v>
       </c>
       <c r="T9">
-        <v>0.03282453623688461</v>
+        <v>0.08095717720115106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N10">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O10">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P10">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q10">
-        <v>1240.534458861028</v>
+        <v>1401.029451897567</v>
       </c>
       <c r="R10">
-        <v>1240.534458861028</v>
+        <v>12609.2650670781</v>
       </c>
       <c r="S10">
-        <v>0.0004560696855127373</v>
+        <v>0.0004434697470327525</v>
       </c>
       <c r="T10">
-        <v>0.0004560696855127373</v>
+        <v>0.0004434697470327525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N11">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O11">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P11">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q11">
-        <v>2.656685727484615</v>
+        <v>3.39494282646</v>
       </c>
       <c r="R11">
-        <v>2.656685727484615</v>
+        <v>30.55448543814</v>
       </c>
       <c r="S11">
-        <v>9.767030779237878E-07</v>
+        <v>1.074605843868405E-06</v>
       </c>
       <c r="T11">
-        <v>9.767030779237878E-07</v>
+        <v>1.074605843868405E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N12">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O12">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P12">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q12">
-        <v>162.203566147461</v>
+        <v>203.8307233859267</v>
       </c>
       <c r="R12">
-        <v>162.203566147461</v>
+        <v>1834.47651047334</v>
       </c>
       <c r="S12">
-        <v>5.96324663724672E-05</v>
+        <v>6.451881451530593E-05</v>
       </c>
       <c r="T12">
-        <v>5.96324663724672E-05</v>
+        <v>6.451881451530593E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N13">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O13">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P13">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q13">
-        <v>48.08833369855527</v>
+        <v>143.30830087628</v>
       </c>
       <c r="R13">
-        <v>48.08833369855527</v>
+        <v>1289.77470788652</v>
       </c>
       <c r="S13">
-        <v>1.767917938117396E-05</v>
+        <v>4.536157027335926E-05</v>
       </c>
       <c r="T13">
-        <v>1.767917938117396E-05</v>
+        <v>4.536157027335926E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>481.774396559498</v>
+        <v>519.8509316666667</v>
       </c>
       <c r="N14">
-        <v>481.774396559498</v>
+        <v>1559.552795</v>
       </c>
       <c r="O14">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="P14">
-        <v>0.8534908361064867</v>
+        <v>0.7998736652701117</v>
       </c>
       <c r="Q14">
-        <v>12720.79671100692</v>
+        <v>14598.88811187492</v>
       </c>
       <c r="R14">
-        <v>12720.79671100692</v>
+        <v>131389.9930068743</v>
       </c>
       <c r="S14">
-        <v>0.004676669570942018</v>
+        <v>0.004621005796247867</v>
       </c>
       <c r="T14">
-        <v>0.004676669570942018</v>
+        <v>0.004621005796247867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03175139881424</v>
+        <v>1.259691</v>
       </c>
       <c r="N15">
-        <v>1.03175139881424</v>
+        <v>3.779073</v>
       </c>
       <c r="O15">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="P15">
-        <v>0.001827806480204375</v>
+        <v>0.001938235743941786</v>
       </c>
       <c r="Q15">
-        <v>27.24241863897412</v>
+        <v>35.37569492388199</v>
       </c>
       <c r="R15">
-        <v>27.24241863897412</v>
+        <v>318.381254314938</v>
       </c>
       <c r="S15">
-        <v>1.001539393971411E-05</v>
+        <v>1.119751655309868E-05</v>
       </c>
       <c r="T15">
-        <v>1.001539393971411E-05</v>
+        <v>1.119751655309868E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.9934337110147</v>
+        <v>75.63123766666666</v>
       </c>
       <c r="N16">
-        <v>62.9934337110147</v>
+        <v>226.893713</v>
       </c>
       <c r="O16">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="P16">
-        <v>0.1115964625583683</v>
+        <v>0.1163707355248944</v>
       </c>
       <c r="Q16">
-        <v>1663.281963692204</v>
+        <v>2123.939593449197</v>
       </c>
       <c r="R16">
-        <v>1663.281963692204</v>
+        <v>19115.45634104278</v>
       </c>
       <c r="S16">
-        <v>0.0006114884408745728</v>
+        <v>0.0006722934717354022</v>
       </c>
       <c r="T16">
-        <v>0.0006114884408745728</v>
+        <v>0.0006722934717354022</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.675602103342</v>
+        <v>53.174438</v>
       </c>
       <c r="N17">
-        <v>18.675602103342</v>
+        <v>159.523314</v>
       </c>
       <c r="O17">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="P17">
-        <v>0.03308489485494056</v>
+        <v>0.08181736346105226</v>
       </c>
       <c r="Q17">
-        <v>493.1115881392168</v>
+        <v>1493.288986296543</v>
       </c>
       <c r="R17">
-        <v>493.1115881392168</v>
+        <v>13439.60087666888</v>
       </c>
       <c r="S17">
-        <v>0.0001812873840939658</v>
+        <v>0.0004726727822193852</v>
       </c>
       <c r="T17">
-        <v>0.0001812873840939658</v>
+        <v>0.0004726727822193852</v>
       </c>
     </row>
   </sheetData>
